--- a/script/excel/yojitsu.xlsx
+++ b/script/excel/yojitsu.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9750" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet3 (2)" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet3 (3)" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="left_cell">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())), 0, -1)</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
   <si>
     <t>日数</t>
     <rPh sb="0" eb="2">
@@ -317,7 +318,177 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1214,8 +1385,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="517292384"/>
-        <c:axId val="517292776"/>
+        <c:axId val="258774368"/>
+        <c:axId val="258778848"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2446,7 +2617,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="517292384"/>
+        <c:axId val="258774368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2489,14 +2660,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517292776"/>
+        <c:crossAx val="258778848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517292776"/>
+        <c:axId val="258778848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,7 +2718,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517292384"/>
+        <c:crossAx val="258774368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3207,8 +3378,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="515848088"/>
-        <c:axId val="515848480"/>
+        <c:axId val="258858280"/>
+        <c:axId val="259567904"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3409,7 +3580,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sheet3 (2)'!$F$8</c15:sqref>
@@ -3438,7 +3609,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sheet3 (2)'!$G$6:$AA$6</c15:sqref>
@@ -3516,7 +3687,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sheet3 (2)'!$G$8:$AA$8</c15:sqref>
@@ -3601,7 +3772,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sheet3 (2)'!$F$10</c15:sqref>
@@ -3630,7 +3801,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sheet3 (2)'!$G$6:$AA$6</c15:sqref>
@@ -3708,7 +3879,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sheet3 (2)'!$G$10:$AA$10</c15:sqref>
@@ -3733,7 +3904,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sheet3 (2)'!$F$11</c15:sqref>
@@ -3762,7 +3933,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sheet3 (2)'!$G$6:$AA$6</c15:sqref>
@@ -3840,7 +4011,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sheet3 (2)'!$G$11:$AA$11</c15:sqref>
@@ -3925,7 +4096,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sheet3 (2)'!$F$13</c15:sqref>
@@ -3956,7 +4127,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sheet3 (2)'!$G$6:$AA$6</c15:sqref>
@@ -4034,7 +4205,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sheet3 (2)'!$G$13:$AA$13</c15:sqref>
@@ -4119,7 +4290,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sheet3 (2)'!$F$14</c15:sqref>
@@ -4150,7 +4321,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sheet3 (2)'!$G$6:$AA$6</c15:sqref>
@@ -4228,7 +4399,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sheet3 (2)'!$G$14:$AA$14</c15:sqref>
@@ -4313,7 +4484,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sheet3 (2)'!$F$15</c15:sqref>
@@ -4344,7 +4515,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sheet3 (2)'!$G$6:$AA$6</c15:sqref>
@@ -4422,7 +4593,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sheet3 (2)'!$G$15:$AA$15</c15:sqref>
@@ -4505,7 +4676,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515848088"/>
+        <c:axId val="258858280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4548,14 +4719,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515848480"/>
+        <c:crossAx val="259567904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515848480"/>
+        <c:axId val="259567904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4606,7 +4777,2069 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515848088"/>
+        <c:crossAx val="258858280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet3 (3)'!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>見積積算</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet3 (3)'!$G$16:$AA$16</c:f>
+              <c:numCache>
+                <c:formatCode>m/d;@</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>42338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42359</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42366</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42380</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42387</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42394</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42408</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42415</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42422</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42429</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42436</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42443</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet3 (3)'!$G$19:$AA$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3235294117647059E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25941176470588234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47558823529411764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69176470588235295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.028014705882353</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.095264705882353</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3642647058823529</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7005147058823529</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0367647058823528</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1698147058823527</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1698147058823527</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1698147058823527</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3915647058823528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6133147058823529</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8514099439775911</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0895051820728292</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3276004201680673</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5656956582633055</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8037908963585436</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet3 (3)'!$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>実績積算</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet3 (3)'!$G$16:$AA$16</c:f>
+              <c:numCache>
+                <c:formatCode>m/d;@</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>42338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42359</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42366</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42380</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42387</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42394</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42408</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42415</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42422</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42429</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42436</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42443</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet3 (3)'!$G$22:$AA$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet3 (3)'!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>実績＋予測</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet3 (3)'!$G$16:$AA$16</c:f>
+              <c:numCache>
+                <c:formatCode>m/d;@</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>42338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42359</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42366</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42380</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42387</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42394</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42408</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42415</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42422</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42429</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42436</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42443</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet3 (3)'!$G$26:$AA$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="306527872"/>
+        <c:axId val="306528264"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$F$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>日数</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$G$16:$AA$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d;@</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>42338</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42345</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42352</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42359</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42366</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>42370</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>42373</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>42380</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>42387</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>42394</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>42401</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>42408</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>42415</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>42422</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>42429</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>42430</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>42436</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>42443</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>42450</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>42457</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>42461</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$G$17:$AA$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$F$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>数値</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$G$16:$AA$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d;@</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>42338</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42345</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42352</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42359</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42366</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>42370</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>42373</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>42380</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>42387</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>42394</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>42401</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>42408</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>42415</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>42422</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>42429</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>42430</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>42436</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>42443</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>42450</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>42457</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>42461</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$G$18:$AA$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.3235294117647059E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.21617647058823528</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.21617647058823528</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.21617647058823528</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.33624999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.7250000000000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.26900000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.33624999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.33624999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.13305</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.22175000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.22175000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.23809523809523808</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.23809523809523808</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.23809523809523808</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.23809523809523808</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.23809523809523808</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$F$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>実績</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$G$16:$AA$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d;@</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>42338</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42345</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42352</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42359</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42366</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>42370</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>42373</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>42380</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>42387</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>42394</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>42401</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>42408</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>42415</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>42422</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>42429</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>42430</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>42436</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>42443</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>42450</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>42457</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>42461</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$G$20:$AA$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>56</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$F$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>実績２</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$G$16:$AA$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d;@</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>42338</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42345</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42352</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42359</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42366</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>42370</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>42373</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>42380</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>42387</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>42394</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>42401</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>42408</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>42415</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>42422</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>42429</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>42430</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>42436</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>42443</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>42450</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>42457</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>42461</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$G$21:$AA$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$F$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>日数積算</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$G$16:$AA$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d;@</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>42338</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42345</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42352</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42359</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42366</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>42370</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>42373</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>42380</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>42387</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>42394</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>42401</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>42408</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>42415</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>42422</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>42429</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>42430</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>42436</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>42443</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>42450</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>42457</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>42461</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$G$23:$AA$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>79</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$F$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>１日あたり平均</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$G$16:$AA$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d;@</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>42338</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42345</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42352</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42359</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42366</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>42370</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>42373</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>42380</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>42387</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>42394</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>42401</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>42408</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>42415</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>42422</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>42429</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>42430</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>42436</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>42443</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>42450</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>42457</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>42461</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$G$24:$AA$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$F$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>予測</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$G$16:$AA$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d;@</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>42338</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42345</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42352</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42359</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42366</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>42370</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>42373</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>42380</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>42387</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>42394</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>42401</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>42408</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>42415</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>42422</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>42429</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>42430</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>42436</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>42443</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>42450</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>42457</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>42461</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet3 (3)'!$G$25:$AA$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.4</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.0499999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="306527872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306528264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="306528264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306527872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4728,6 +6961,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5799,6 +8072,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5871,21 +8660,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654843</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="見積" displayName="見積" ref="A6:D13" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="見積" displayName="見積" ref="A6:D13" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A6:D12"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="年" totalsRowLabel="集計" dataDxfId="17" totalsRowDxfId="13"/>
-    <tableColumn id="2" name="月" dataDxfId="16" totalsRowDxfId="12"/>
-    <tableColumn id="3" name="数値" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="11"/>
-    <tableColumn id="4" name="日数合計" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="10"/>
+    <tableColumn id="1" name="年" totalsRowLabel="集計" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="2" name="月" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="3" name="数値" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="4" name="日数合計" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="見積_4" displayName="見積_4" ref="A6:D13" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="見積_4" displayName="見積_4" ref="A6:D13" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A6:D12"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="年" totalsRowLabel="集計" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" name="月" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="3" name="数値" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" name="日数合計" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="見積_42" displayName="見積_42" ref="A6:D13" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A6:D12"/>
   <tableColumns count="4">
     <tableColumn id="1" name="年" totalsRowLabel="集計" dataDxfId="7" totalsRowDxfId="3"/>
@@ -6162,7 +9001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -7099,7 +9938,7 @@
   <dimension ref="A2:AA16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -8100,4 +10939,1040 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AA26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="1"/>
+    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
+    <col min="7" max="27" width="7.625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="5.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.345</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <f>SUBTOTAL(109,見積_42[数値])</f>
+        <v>5.1210000000000004</v>
+      </c>
+      <c r="D13" s="1">
+        <f>SUBTOTAL(109,見積_42[日数合計])</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="F16" s="12"/>
+      <c r="G16" s="13">
+        <f>H16-7</f>
+        <v>42338</v>
+      </c>
+      <c r="H16" s="6">
+        <v>42345</v>
+      </c>
+      <c r="I16" s="3">
+        <f>IF(MONTH(H16+7)=MONTH(H16),H16+7-WEEKDAY(H16,3),DATE(YEAR(H16),MONTH(H16)+1,1))</f>
+        <v>42352</v>
+      </c>
+      <c r="J16" s="3">
+        <f>IF(MONTH(I16+7)=MONTH(I16),I16+7-WEEKDAY(I16,3),DATE(YEAR(I16),MONTH(I16)+1,1))</f>
+        <v>42359</v>
+      </c>
+      <c r="K16" s="3">
+        <f>IF(MONTH(J16+7)=MONTH(J16),J16+7-WEEKDAY(J16,3),DATE(YEAR(J16),MONTH(J16)+1,1))</f>
+        <v>42366</v>
+      </c>
+      <c r="L16" s="3">
+        <f>IF(MONTH(K16+7)=MONTH(K16),K16+7-WEEKDAY(K16,3),DATE(YEAR(K16),MONTH(K16)+1,1))</f>
+        <v>42370</v>
+      </c>
+      <c r="M16" s="3">
+        <f>IF(MONTH(L16+7)=MONTH(L16),L16+7-WEEKDAY(L16,3),DATE(YEAR(L16),MONTH(L16)+1,1))</f>
+        <v>42373</v>
+      </c>
+      <c r="N16" s="3">
+        <f>IF(MONTH(M16+7)=MONTH(M16),M16+7-WEEKDAY(M16,3),DATE(YEAR(M16),MONTH(M16)+1,1))</f>
+        <v>42380</v>
+      </c>
+      <c r="O16" s="3">
+        <f>IF(MONTH(N16+7)=MONTH(N16),N16+7-WEEKDAY(N16,3),DATE(YEAR(N16),MONTH(N16)+1,1))</f>
+        <v>42387</v>
+      </c>
+      <c r="P16" s="3">
+        <f>IF(MONTH(O16+7)=MONTH(O16),O16+7-WEEKDAY(O16,3),DATE(YEAR(O16),MONTH(O16)+1,1))</f>
+        <v>42394</v>
+      </c>
+      <c r="Q16" s="3">
+        <f>IF(MONTH(P16+7)=MONTH(P16),P16+7-WEEKDAY(P16,3),DATE(YEAR(P16),MONTH(P16)+1,1))</f>
+        <v>42401</v>
+      </c>
+      <c r="R16" s="3">
+        <f>IF(MONTH(Q16+7)=MONTH(Q16),Q16+7-WEEKDAY(Q16,3),DATE(YEAR(Q16),MONTH(Q16)+1,1))</f>
+        <v>42408</v>
+      </c>
+      <c r="S16" s="3">
+        <f>IF(MONTH(R16+7)=MONTH(R16),R16+7-WEEKDAY(R16,3),DATE(YEAR(R16),MONTH(R16)+1,1))</f>
+        <v>42415</v>
+      </c>
+      <c r="T16" s="3">
+        <f>IF(MONTH(S16+7)=MONTH(S16),S16+7-WEEKDAY(S16,3),DATE(YEAR(S16),MONTH(S16)+1,1))</f>
+        <v>42422</v>
+      </c>
+      <c r="U16" s="3">
+        <f>IF(MONTH(T16+7)=MONTH(T16),T16+7-WEEKDAY(T16,3),DATE(YEAR(T16),MONTH(T16)+1,1))</f>
+        <v>42429</v>
+      </c>
+      <c r="V16" s="3">
+        <f>IF(MONTH(U16+7)=MONTH(U16),U16+7-WEEKDAY(U16,3),DATE(YEAR(U16),MONTH(U16)+1,1))</f>
+        <v>42430</v>
+      </c>
+      <c r="W16" s="3">
+        <f>IF(MONTH(V16+7)=MONTH(V16),V16+7-WEEKDAY(V16,3),DATE(YEAR(V16),MONTH(V16)+1,1))</f>
+        <v>42436</v>
+      </c>
+      <c r="X16" s="3">
+        <f>IF(MONTH(W16+7)=MONTH(W16),W16+7-WEEKDAY(W16,3),DATE(YEAR(W16),MONTH(W16)+1,1))</f>
+        <v>42443</v>
+      </c>
+      <c r="Y16" s="3">
+        <f>IF(MONTH(X16+7)=MONTH(X16),X16+7-WEEKDAY(X16,3),DATE(YEAR(X16),MONTH(X16)+1,1))</f>
+        <v>42450</v>
+      </c>
+      <c r="Z16" s="3">
+        <f>IF(MONTH(Y16+7)=MONTH(Y16),Y16+7-WEEKDAY(Y16,3),DATE(YEAR(Y16),MONTH(Y16)+1,1))</f>
+        <v>42457</v>
+      </c>
+      <c r="AA16" s="3">
+        <f>IF(MONTH(Z16+7)=MONTH(Z16),Z16+7-WEEKDAY(Z16,3),DATE(YEAR(Z16),MONTH(Z16)+1,1))</f>
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="17" spans="6:27" x14ac:dyDescent="0.15">
+      <c r="F17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5</v>
+      </c>
+      <c r="J17" s="7">
+        <v>5</v>
+      </c>
+      <c r="K17" s="7">
+        <v>5</v>
+      </c>
+      <c r="L17" s="7">
+        <v>5</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4</v>
+      </c>
+      <c r="O17" s="7">
+        <v>5</v>
+      </c>
+      <c r="P17" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>3</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0</v>
+      </c>
+      <c r="T17" s="7">
+        <v>5</v>
+      </c>
+      <c r="U17" s="7">
+        <v>5</v>
+      </c>
+      <c r="V17" s="7">
+        <v>5</v>
+      </c>
+      <c r="W17" s="7">
+        <v>5</v>
+      </c>
+      <c r="X17" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="6:27" x14ac:dyDescent="0.15">
+      <c r="F18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(H16), 見積_42[月], MONTH(H16))*H17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(H16), 見積_42[月], MONTH(H16))</f>
+        <v>4.3235294117647059E-2</v>
+      </c>
+      <c r="I18" s="4">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(I16), 見積_42[月], MONTH(I16))*I17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(I16), 見積_42[月], MONTH(I16))</f>
+        <v>0.21617647058823528</v>
+      </c>
+      <c r="J18" s="4">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(J16), 見積_42[月], MONTH(J16))*J17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(J16), 見積_42[月], MONTH(J16))</f>
+        <v>0.21617647058823528</v>
+      </c>
+      <c r="K18" s="4">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(K16), 見積_42[月], MONTH(K16))*K17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(K16), 見積_42[月], MONTH(K16))</f>
+        <v>0.21617647058823528</v>
+      </c>
+      <c r="L18" s="4">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(L16), 見積_42[月], MONTH(L16))*L17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(L16), 見積_42[月], MONTH(L16))</f>
+        <v>0.33624999999999999</v>
+      </c>
+      <c r="M18" s="4">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(M16), 見積_42[月], MONTH(M16))*M17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(M16), 見積_42[月], MONTH(M16))</f>
+        <v>6.7250000000000004E-2</v>
+      </c>
+      <c r="N18" s="4">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(N16), 見積_42[月], MONTH(N16))*N17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(N16), 見積_42[月], MONTH(N16))</f>
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="O18" s="4">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(O16), 見積_42[月], MONTH(O16))*O17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(O16), 見積_42[月], MONTH(O16))</f>
+        <v>0.33624999999999999</v>
+      </c>
+      <c r="P18" s="4">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(P16), 見積_42[月], MONTH(P16))*P17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(P16), 見積_42[月], MONTH(P16))</f>
+        <v>0.33624999999999999</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(Q16), 見積_42[月], MONTH(Q16))*Q17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(Q16), 見積_42[月], MONTH(Q16))</f>
+        <v>0.13305</v>
+      </c>
+      <c r="R18" s="4">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(R16), 見積_42[月], MONTH(R16))*R17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(R16), 見積_42[月], MONTH(R16))</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(S16), 見積_42[月], MONTH(S16))*S17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(S16), 見積_42[月], MONTH(S16))</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(T16), 見積_42[月], MONTH(T16))*T17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(T16), 見積_42[月], MONTH(T16))</f>
+        <v>0.22175000000000003</v>
+      </c>
+      <c r="U18" s="4">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(U16), 見積_42[月], MONTH(U16))*U17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(U16), 見積_42[月], MONTH(U16))</f>
+        <v>0.22175000000000003</v>
+      </c>
+      <c r="V18" s="4">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(V16), 見積_42[月], MONTH(V16))*V17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(V16), 見積_42[月], MONTH(V16))</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="W18" s="4">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(W16), 見積_42[月], MONTH(W16))*W17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(W16), 見積_42[月], MONTH(W16))</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="X18" s="4">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(X16), 見積_42[月], MONTH(X16))*X17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(X16), 見積_42[月], MONTH(X16))</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="Y18" s="4">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(Y16), 見積_42[月], MONTH(Y16))*Y17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(Y16), 見積_42[月], MONTH(Y16))</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="Z18" s="4">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(Z16), 見積_42[月], MONTH(Z16))*Z17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(Z16), 見積_42[月], MONTH(Z16))</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="AA18" s="4" t="e">
+        <f>SUMIFS(見積_42[数値], 見積_42[年], YEAR(AA16), 見積_42[月], MONTH(AA16))*AA17/SUMIFS(見積_42[日数合計], 見積_42[年], YEAR(AA16), 見積_42[月], MONTH(AA16))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="6:27" x14ac:dyDescent="0.15">
+      <c r="F19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <f>G19+H18</f>
+        <v>4.3235294117647059E-2</v>
+      </c>
+      <c r="I19" s="5">
+        <f>H19+I18</f>
+        <v>0.25941176470588234</v>
+      </c>
+      <c r="J19" s="5">
+        <f>I19+J18</f>
+        <v>0.47558823529411764</v>
+      </c>
+      <c r="K19" s="5">
+        <f>J19+K18</f>
+        <v>0.69176470588235295</v>
+      </c>
+      <c r="L19" s="5">
+        <f>K19+L18</f>
+        <v>1.028014705882353</v>
+      </c>
+      <c r="M19" s="5">
+        <f>L19+M18</f>
+        <v>1.095264705882353</v>
+      </c>
+      <c r="N19" s="5">
+        <f>M19+N18</f>
+        <v>1.3642647058823529</v>
+      </c>
+      <c r="O19" s="5">
+        <f>N19+O18</f>
+        <v>1.7005147058823529</v>
+      </c>
+      <c r="P19" s="5">
+        <f>O19+P18</f>
+        <v>2.0367647058823528</v>
+      </c>
+      <c r="Q19" s="5">
+        <f>P19+Q18</f>
+        <v>2.1698147058823527</v>
+      </c>
+      <c r="R19" s="5">
+        <f>Q19+R18</f>
+        <v>2.1698147058823527</v>
+      </c>
+      <c r="S19" s="5">
+        <f>R19+S18</f>
+        <v>2.1698147058823527</v>
+      </c>
+      <c r="T19" s="5">
+        <f>S19+T18</f>
+        <v>2.3915647058823528</v>
+      </c>
+      <c r="U19" s="5">
+        <f>T19+U18</f>
+        <v>2.6133147058823529</v>
+      </c>
+      <c r="V19" s="5">
+        <f>U19+V18</f>
+        <v>2.8514099439775911</v>
+      </c>
+      <c r="W19" s="5">
+        <f>V19+W18</f>
+        <v>3.0895051820728292</v>
+      </c>
+      <c r="X19" s="5">
+        <f>W19+X18</f>
+        <v>3.3276004201680673</v>
+      </c>
+      <c r="Y19" s="5">
+        <f>X19+Y18</f>
+        <v>3.5656956582633055</v>
+      </c>
+      <c r="Z19" s="5">
+        <f>Y19+Z18</f>
+        <v>3.8037908963585436</v>
+      </c>
+      <c r="AA19" s="5" t="e">
+        <f>Z19+AA18</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="6:27" x14ac:dyDescent="0.15">
+      <c r="F20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>56</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+    </row>
+    <row r="21" spans="6:27" x14ac:dyDescent="0.15">
+      <c r="F21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ref="H21:AA21" si="0">IF(H20="","",H20/160)</f>
+        <v>0.35</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="6:27" x14ac:dyDescent="0.15">
+      <c r="F22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <f>IF(H21="",NA(),G22+H21)</f>
+        <v>0.35</v>
+      </c>
+      <c r="I22" s="5" t="e">
+        <f>IF(I21="",NA(),H22+I21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J22" s="5" t="e">
+        <f>IF(J21="",NA(),I22+J21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K22" s="5" t="e">
+        <f>IF(K21="",NA(),J22+K21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L22" s="5" t="e">
+        <f>IF(L21="",NA(),K22+L21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="5" t="e">
+        <f>IF(M21="",NA(),L22+M21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N22" s="5" t="e">
+        <f>IF(N21="",NA(),M22+N21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O22" s="5" t="e">
+        <f>IF(O21="",NA(),N22+O21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P22" s="5" t="e">
+        <f>IF(P21="",NA(),O22+P21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q22" s="5" t="e">
+        <f>IF(Q21="",NA(),P22+Q21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R22" s="5" t="e">
+        <f>IF(R21="",NA(),Q22+R21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S22" s="5" t="e">
+        <f>IF(S21="",NA(),R22+S21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T22" s="5" t="e">
+        <f>IF(T21="",NA(),S22+T21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U22" s="5" t="e">
+        <f>IF(U21="",NA(),T22+U21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V22" s="5" t="e">
+        <f>IF(V21="",NA(),U22+V21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W22" s="5" t="e">
+        <f>IF(W21="",NA(),V22+W21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X22" s="5" t="e">
+        <f>IF(X21="",NA(),W22+X21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y22" s="5" t="e">
+        <f>IF(Y21="",NA(),X22+Y21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z22" s="5" t="e">
+        <f>IF(Z21="",NA(),Y22+Z21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA22" s="5" t="e">
+        <f>IF(AA21="",NA(),Z22+AA21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="6:27" x14ac:dyDescent="0.15">
+      <c r="F23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" ref="H23:AA23" si="1">G23+H17</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="X23" s="1">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="Y23" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="AA23" s="1">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="6:27" x14ac:dyDescent="0.15">
+      <c r="F24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" ref="H24:AA24" si="2">IF(ISNA(H22),left_cell,H22/H23)</f>
+        <v>0.35</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="AA24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="25" spans="6:27" x14ac:dyDescent="0.15">
+      <c r="F25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" ref="H25:AA25" si="3">IF(ISNA(H22),H24*H17,"")</f>
+        <v/>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="X25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="Y25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="AA25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="26" spans="6:27" x14ac:dyDescent="0.15">
+      <c r="F26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" ref="H26:AA26" si="4">IF(ISNA(H22),left_cell+H25,H22)</f>
+        <v>0.35</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.1</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.85</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.6</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.35</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.1</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>10.85</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>12.6</v>
+      </c>
+      <c r="Q26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>13.649999999999999</v>
+      </c>
+      <c r="R26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>13.649999999999999</v>
+      </c>
+      <c r="S26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>13.649999999999999</v>
+      </c>
+      <c r="T26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>15.399999999999999</v>
+      </c>
+      <c r="U26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.149999999999999</v>
+      </c>
+      <c r="V26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="W26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.65</v>
+      </c>
+      <c r="X26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>22.4</v>
+      </c>
+      <c r="Y26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>24.15</v>
+      </c>
+      <c r="Z26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>25.9</v>
+      </c>
+      <c r="AA26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>27.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>